--- a/static/downloads/60 Bưu điện Tỉnh Gia Lai.xlsx
+++ b/static/downloads/60 Bưu điện Tỉnh Gia Lai.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B252"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>606400_kieunt</t>
+          <t>601345_duyenvth</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -448,7 +448,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>601180_tuyenvtk</t>
+          <t>600000_tiennqg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>602400_thunt</t>
+          <t>604000_trungnt</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>601370_binhht</t>
+          <t>603531_nhinhbt</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>601345_duyenvth</t>
+          <t>606430_tbc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>600000_lailtb</t>
+          <t>605300_huyenhtt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>601160_toanbt</t>
+          <t>603531_tbc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>601160_thuyntt</t>
+          <t>602410_nhintt</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>600000_tiennqg</t>
+          <t>605300_banhang</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>601120_tranglt</t>
+          <t>606710_tbc</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>605050_tuyettt</t>
+          <t>601299_truongbc</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>604000_trungnt</t>
+          <t>606430_tanan</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>602400_tbc</t>
+          <t>605380_chuathai</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>603531_nhinhbt</t>
+          <t>605510_iasao</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>606430_tbc</t>
+          <t>601380_thaoht</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>606430_thuypt</t>
+          <t>601299_thaontp</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>605300_huyenhtt</t>
+          <t>603400_thaontb</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>605300_tbc</t>
+          <t>601890_adok</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>602890_thonv</t>
+          <t>601990_hadong</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>603000_hoatt</t>
+          <t>603560_sesan</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>602400_huyentt</t>
+          <t>600000_thachttn</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>606130_tbc</t>
+          <t>600000_thachtn</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>606130_banhang</t>
+          <t>600000_ngavtt</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>603531_tbc</t>
+          <t>604200_loanhtt</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>602410_nhintt</t>
+          <t>601299_linhnk</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>605700_phungdt</t>
+          <t>600000_tiennqg1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>606000_tandd</t>
+          <t>601299_hangnt</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>605300_banhang</t>
+          <t>604200_hangntt</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>606710_tbc</t>
+          <t>600000_chungptk</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>601500_ngantt</t>
+          <t>603400_nuongttm</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>601444_thoavtd</t>
+          <t>601700_chinp</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>605720_yama</t>
+          <t>601700_thuyhtb</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>601180_yendo</t>
+          <t>603400_hauttt</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>601299_truongbc</t>
+          <t>600000_lieudt</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>606430_tanan</t>
+          <t>600000_huedtk</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>601299_huongltx</t>
+          <t>601052thaoptt</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>605380_chuathai</t>
+          <t>601052_thaoptt</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>605510_iasao</t>
+          <t>602400_vuongvx</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>601140_tuyethtg</t>
+          <t>602400thunt</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>601080_baottn</t>
+          <t>006010_honghta</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>601380_thaoht</t>
+          <t>606900_haltu</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>601299_thaontp</t>
+          <t>605050_linhnvn</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>601450_thaontt</t>
+          <t>603400_tamttt</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>603400_thaontb</t>
+          <t>602400_thuyvtd</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>601890_adok</t>
+          <t>606600_thangtv</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>601990_hadong</t>
+          <t>606600_hienttm</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>603560_sesan</t>
+          <t>603400_vintt</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>601400_ngantb</t>
+          <t>606400_huong</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>600000_thachttn</t>
+          <t>601052_lienltb</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>600000_thachtn</t>
+          <t>604700_vannt1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>600000_xuanqtt</t>
+          <t>606600_nytt</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>600000_ngavtt</t>
+          <t>600000_binhnt</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>604200_loanhtt</t>
+          <t>606400_truongbc</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>601299_linhnk</t>
+          <t>605890_truongbc</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>600000_hoanth</t>
+          <t>601052_diemptn</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>600000_lailtb1</t>
+          <t>600900_anhdtn</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>600000_tiennqg1</t>
+          <t>606400_linhlth</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>601299_trinhdtt</t>
+          <t>601052_anhdtn</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>601299_hangnt</t>
+          <t>601770_tbc</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>604200_hangntt</t>
+          <t>601444_kieutt</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>600000_chungptk</t>
+          <t>602400_nhanvv1</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>605300_ngattn</t>
+          <t>601160_truongbc</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>603400_nuongttm</t>
+          <t>00248040_hanpn</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>601700_chinp</t>
+          <t>00243489_dung</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>601700_thuyhtb</t>
+          <t>00220752_co</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>600000_hoandt</t>
+          <t>00020269_phuoc</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>603400_hauttt</t>
+          <t>00222444_tamvt</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>604200_trinhmuc</t>
+          <t>00020684_sang</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>600000_nhungnth</t>
+          <t>00221248_thao</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>600000_lieudt</t>
+          <t>00112118_thien</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>600000_huedtk</t>
+          <t>00101660_tinh</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>602400_lyntt</t>
+          <t>00100950_yen</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>601052thaoptt</t>
+          <t>00238900_nhi</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>601052_thaoptt</t>
+          <t>00020668_huyen</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>602400_kiennn</t>
+          <t>00020647_thao</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>602400_vuongvx</t>
+          <t>00020660_hlang</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>602400thunt</t>
+          <t>00020677_nhung</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>602400_thuydt</t>
+          <t>00020649_bich</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>006010_honghta</t>
+          <t>00020663_hop</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>605700_truongbc</t>
+          <t>00225556_smung</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>606900_haltu</t>
+          <t>600000_binhht</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>605050_linhnvn</t>
+          <t>00111098_hai</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>602400_diemntp</t>
+          <t>00020255_ngoc</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>605870_truongbc</t>
+          <t>00098925_huong</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>603400_tamttt</t>
+          <t>00104612_huong</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>602400_thuyvtd</t>
+          <t>00217510_tbc</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>606600_thangtv</t>
+          <t>00020608_tbc</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>606600_hienttm</t>
+          <t>00020101_tbc</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>603400_vintt</t>
+          <t>00020706_duyen</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>602400_duyenltm</t>
+          <t>00020147_giang</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>606400_huong</t>
+          <t>00020820_ha</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>601052_lienltb</t>
+          <t>00020291_htem</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>604700_vannt1</t>
+          <t>00020607_tbc</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>606600_nytt</t>
+          <t>00230456_ly</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>600000_binhnt</t>
+          <t>00107392_ly</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>606400_truongbc</t>
+          <t>00094039_tbc</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>606400_hienttt</t>
+          <t>00248034_phuong</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>602400_thunt1</t>
+          <t>00020195_tbc</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>605890_truongbc</t>
+          <t>00020488_vuivt</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>601052_diemptn</t>
+          <t>00099677_dung</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>600900_anhdtn</t>
+          <t>00101522_my</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>603000_truongbc</t>
+          <t>00101524_phuoc</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>606400_linhlth</t>
+          <t>00222268_ngantb</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>601052_anhdtn</t>
+          <t>00228094_thao</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>603000_anhpv</t>
+          <t>00020322_phuong</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>606400_yendtn</t>
+          <t>00222844_quochm</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>601770_tbc</t>
+          <t>00020523_tbc</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>601444_kieutt</t>
+          <t>00020522_loan</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1732,7 +1732,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>601380_thoavtd</t>
+          <t>00020271_hiendt</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1744,7 +1744,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>602400_nhanvv1</t>
+          <t>00251285_thao</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>601160_truongbc</t>
+          <t>00020820_tbc</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>00020416_nhan</t>
+          <t>00020201_tbc</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>00248040_hanpn</t>
+          <t>00020323_hung</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>00243489_dung</t>
+          <t>00083627_loan</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>00220752_co</t>
+          <t>00020645_uyen</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>00020491_huanlt</t>
+          <t>00020189_hangnt</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>00108535_phuong</t>
+          <t>00020251_huynhd</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>00020269_phuoc</t>
+          <t>00107412_nga</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>00081037_hai</t>
+          <t>00248841_loan</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>00223057_bien</t>
+          <t>00020151_thien</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>00222444_tamvt</t>
+          <t>00020150_hien</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>00020193_nuong</t>
+          <t>00020612_tbc</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>00020684_sang</t>
+          <t>00111340_dieu</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>00221248_thao</t>
+          <t>00226364_tbc</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>00112118_thien</t>
+          <t>00020522_tbc</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>00101660_tinh</t>
+          <t>00020705_binhht</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1948,7 +1948,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>00100950_yen</t>
+          <t>00218505_oan</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1960,7 +1960,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>00238900_nhi</t>
+          <t>00106017_chiltc</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>00020668_huyen</t>
+          <t>00020288_tannv</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>00020647_thao</t>
+          <t>00020483_binhpt</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>00020660_hlang</t>
+          <t>00020111_hong</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>00020677_nhung</t>
+          <t>00020149_lan</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>00020649_bich</t>
+          <t>00222266_trieu</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2032,7 +2032,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>00020663_hop</t>
+          <t>00020273_TET</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2044,1402 +2044,10 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>00225556_smung</t>
+          <t>00020488_tbc</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>600000_binhht</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>00074671_ha</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>00111098_hai</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>00117458_khanh</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>00020255_ngoc</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>00098925_huong</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>00104612_huong</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>00217510_tbc</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>00020608_tbc</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>00106870_tuyen</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>00020188_xuanbt</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>00107703_kieu</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>00020101_tbc</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>00020528_tbc</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>00020174_nham</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>00251954_thao</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>00010639_nhan</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>00020612_binh</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>00020641_tbc</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>00020706_duyen</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>00020201_hoang</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>00020147_giang</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>00020820_ha</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>00020291_htem</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>00020607_tbc</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>00230456_ly</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>00107392_ly</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>00020133_lieu</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>00020195_hien</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>00094039_tbc</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>00020528_thu</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>00248034_phuong</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>00020195_tbc</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>00020488_vuivt</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>00020526_oanh</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>00086630_dat</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>00099677_dung</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>00101522_my</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>00101524_phuoc</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>00020704_thao</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>00222618_loanbt</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>00226901_thai</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>00222268_ngantb</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>00074671_tbc</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>00228094_thao</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>00020322_phuong</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>00222844_quochm</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>00020523_tbc</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>00074245_huyen</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>00020522_loan</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>00248956_thypdm</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>00213860_tuyen</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>00020271_hiendt</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>00251285_thao</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>00020820_tbc</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>00083596_thuy</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>603070_binh</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>00020201_tbc</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>00020187_thuy</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>00020527_quyen</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>00020323_hung</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>00083627_loan</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>00020645_uyen</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>00020189_hangnt</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>00253865_linhbt</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>00020251_huynhd</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>00020510_dung</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>00094039_my</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>00107412_nga</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>00248841_loan</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>00020151_thien</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>00020585_boi</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>00116469_ge</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>00020559_chien</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>00114352_van</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>00020590_lung</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>00020593_thao</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>00020581_tham</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>00088294_thu</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>00020150_hien</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>00020612_tbc</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>00111340_dieu</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>00116409_thach</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>00020194_thuy</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>00020564_thoa</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>00020694_xuan</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>00226364_tbc</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>00020522_tbc</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>00020608_sen</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>00020510_tbc</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>00020705_binhht</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>00114316_vuong</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>00217961_huong</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>00218505_oan</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>00117460_chi</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>00020446_sang</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>00074652_hien</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>00020452_my</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>00102782_thuy</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>00020448_van</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>00106017_chiltc</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>00020199_gaitt</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>00020288_tannv</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>00020483_binhpt</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>00020111_hong</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>00020165_hiep</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>00020149_lan</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>00228017_xuan</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>00222266_trieu</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>00020273_TET</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>00222651_vanntc</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>00020488_tbc</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>00214926_trinh</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>00020350_tuyen</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>00020352_ngheo</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>60_Bưu điện Tỉnh Gia Lai</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>00214929_chien</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
         <is>
           <t>60_Bưu điện Tỉnh Gia Lai</t>
         </is>
